--- a/design/page.xlsx
+++ b/design/page.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="项目" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="文档" sheetId="4" r:id="rId3"/>
     <sheet name="BUG" sheetId="7" r:id="rId4"/>
     <sheet name="人员" sheetId="5" r:id="rId5"/>
-    <sheet name="资料" sheetId="6" r:id="rId6"/>
+    <sheet name="事项1" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">事项!$F$5:$G$5</definedName>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="85">
   <si>
     <t>bug</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -172,10 +172,6 @@
   </si>
   <si>
     <t>未完成事项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>简述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -453,6 +449,14 @@
       </rPr>
       <t>￥文档</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>概要设计文档</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -686,9 +690,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -697,28 +710,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -743,41 +758,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1084,8 +1088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F4:Q64"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1107,13 +1111,13 @@
     </row>
     <row r="6" spans="6:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="F6" s="4"/>
-      <c r="G6" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="16"/>
+      <c r="G6" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="24"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="29" t="s">
-        <v>56</v>
+      <c r="J6" s="17" t="s">
+        <v>55</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
@@ -1173,10 +1177,10 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" t="s">
+        <v>83</v>
+      </c>
+      <c r="J10" t="s">
         <v>38</v>
-      </c>
-      <c r="J10" t="s">
-        <v>39</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>4</v>
@@ -1216,7 +1220,7 @@
         <v>5</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L12" s="4"/>
       <c r="M12" s="5" t="s">
@@ -1256,7 +1260,7 @@
         <v>8</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="5" t="s">
@@ -1620,7 +1624,7 @@
   <dimension ref="E4:Q64"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1642,19 +1646,19 @@
     </row>
     <row r="6" spans="5:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="E6" s="4"/>
-      <c r="F6" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="18"/>
+      <c r="F6" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="16"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
+      <c r="I6" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
       <c r="O6" s="10"/>
       <c r="P6" s="6"/>
     </row>
@@ -1674,36 +1678,36 @@
     </row>
     <row r="8" spans="5:16" x14ac:dyDescent="0.15">
       <c r="E8" s="4"/>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="49" t="s">
+      <c r="M8" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="M8" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="N8" s="24"/>
-      <c r="O8" s="25"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="48"/>
       <c r="P8" s="6"/>
     </row>
     <row r="9" spans="5:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="E9" s="4"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="51"/>
       <c r="P9" s="6"/>
     </row>
     <row r="10" spans="5:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1722,33 +1726,33 @@
     </row>
     <row r="11" spans="5:16" x14ac:dyDescent="0.15">
       <c r="E11" s="4"/>
-      <c r="F11" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="50" t="s">
-        <v>45</v>
+      <c r="F11" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="52" t="s">
+        <v>44</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P11" s="6"/>
     </row>
     <row r="12" spans="5:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="E12" s="4"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="50"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="52"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
@@ -1770,36 +1774,36 @@
     </row>
     <row r="14" spans="5:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E14" s="4"/>
-      <c r="F14" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="M14" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="N14" s="31"/>
-      <c r="O14" s="32"/>
+      <c r="F14" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="M14" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="N14" s="38"/>
+      <c r="O14" s="39"/>
       <c r="P14" s="6"/>
     </row>
     <row r="15" spans="5:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="E15" s="4"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="35"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="42"/>
       <c r="P15" s="6"/>
     </row>
     <row r="16" spans="5:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1818,32 +1822,32 @@
     </row>
     <row r="17" spans="5:16" x14ac:dyDescent="0.15">
       <c r="E17" s="4"/>
-      <c r="F17" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="20"/>
+      <c r="F17" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="27"/>
       <c r="L17" s="5"/>
       <c r="M17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N17" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="N17" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
     </row>
     <row r="18" spans="5:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="E18" s="4"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="22"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="30"/>
       <c r="L18" s="5"/>
       <c r="M18" s="4"/>
       <c r="N18" s="5"/>
@@ -1859,12 +1863,12 @@
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
-      <c r="M19" s="36" t="s">
+      <c r="M19" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="N19" s="44"/>
+      <c r="O19" s="18" t="s">
         <v>51</v>
-      </c>
-      <c r="N19" s="37"/>
-      <c r="O19" s="38" t="s">
-        <v>52</v>
       </c>
       <c r="P19" s="6"/>
     </row>
@@ -1884,28 +1888,28 @@
     </row>
     <row r="21" spans="5:16" x14ac:dyDescent="0.15">
       <c r="E21" s="4"/>
-      <c r="F21" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="45"/>
+      <c r="F21" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="33"/>
       <c r="L21" s="13"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="40"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="20"/>
       <c r="O21" s="3"/>
       <c r="P21" s="6"/>
     </row>
     <row r="22" spans="5:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="E22" s="4"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="48"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="36"/>
       <c r="L22" s="5"/>
       <c r="M22" s="4"/>
       <c r="N22" s="5"/>
@@ -1922,7 +1926,7 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N23" s="5"/>
       <c r="O23" s="14"/>
@@ -1930,14 +1934,14 @@
     </row>
     <row r="24" spans="5:16" x14ac:dyDescent="0.15">
       <c r="E24" s="4"/>
-      <c r="F24" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="45"/>
+      <c r="F24" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="33"/>
       <c r="L24" s="5"/>
       <c r="M24" s="4"/>
       <c r="N24" s="5"/>
@@ -1946,15 +1950,15 @@
     </row>
     <row r="25" spans="5:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="E25" s="4"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="48"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="36"/>
       <c r="L25" s="5"/>
       <c r="M25" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N25" s="5"/>
       <c r="O25" s="14"/>
@@ -1976,17 +1980,17 @@
     </row>
     <row r="27" spans="5:16" x14ac:dyDescent="0.15">
       <c r="E27" s="4"/>
-      <c r="F27" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="45"/>
+      <c r="F27" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="33"/>
       <c r="L27" s="5"/>
       <c r="M27" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N27" s="5"/>
       <c r="O27" s="6"/>
@@ -1994,12 +1998,12 @@
     </row>
     <row r="28" spans="5:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="E28" s="4"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="48"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="36"/>
       <c r="L28" s="5"/>
       <c r="M28" s="4"/>
       <c r="N28" s="5"/>
@@ -2022,14 +2026,14 @@
     </row>
     <row r="30" spans="5:16" x14ac:dyDescent="0.15">
       <c r="E30" s="4"/>
-      <c r="F30" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="45"/>
+      <c r="F30" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="33"/>
       <c r="L30" s="5"/>
       <c r="M30" s="4"/>
       <c r="N30" s="5"/>
@@ -2038,12 +2042,12 @@
     </row>
     <row r="31" spans="5:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="E31" s="4"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="48"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="36"/>
       <c r="L31" s="5"/>
       <c r="M31" s="7"/>
       <c r="N31" s="8"/>
@@ -2094,11 +2098,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F17:K18"/>
-    <mergeCell ref="F21:K22"/>
-    <mergeCell ref="F24:K25"/>
-    <mergeCell ref="F27:K28"/>
-    <mergeCell ref="F30:K31"/>
     <mergeCell ref="M14:O15"/>
     <mergeCell ref="M19:N19"/>
     <mergeCell ref="L14:L15"/>
@@ -2108,6 +2107,11 @@
     <mergeCell ref="M8:O9"/>
     <mergeCell ref="L8:L9"/>
     <mergeCell ref="L11:L12"/>
+    <mergeCell ref="F17:K18"/>
+    <mergeCell ref="F21:K22"/>
+    <mergeCell ref="F24:K25"/>
+    <mergeCell ref="F27:K28"/>
+    <mergeCell ref="F30:K31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2119,7 +2123,7 @@
   <dimension ref="F4:Q64"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6:P6"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2141,19 +2145,19 @@
     </row>
     <row r="6" spans="6:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="F6" s="4"/>
-      <c r="G6" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="16"/>
+      <c r="G6" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="24"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52"/>
+      <c r="J6" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
       <c r="P6" s="10"/>
       <c r="Q6" s="6"/>
     </row>
@@ -2191,7 +2195,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="5" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
@@ -2207,7 +2211,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -2264,7 +2268,7 @@
     <row r="14" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -2281,7 +2285,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -2297,7 +2301,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -2313,7 +2317,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -2342,7 +2346,7 @@
     <row r="19" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F19" s="4"/>
       <c r="G19" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
@@ -2359,7 +2363,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
@@ -2375,7 +2379,7 @@
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
@@ -2391,7 +2395,7 @@
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
@@ -2407,7 +2411,7 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="12"/>
@@ -2423,7 +2427,7 @@
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
@@ -2588,8 +2592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F4:Q64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2611,19 +2615,19 @@
     </row>
     <row r="6" spans="6:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="F6" s="4"/>
-      <c r="G6" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="16"/>
+      <c r="G6" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="24"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52"/>
+      <c r="J6" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
       <c r="P6" s="10"/>
       <c r="Q6" s="6"/>
     </row>
@@ -2644,21 +2648,21 @@
     <row r="8" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F8" s="4"/>
       <c r="G8" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P8" s="3"/>
       <c r="Q8" s="6"/>
@@ -2668,13 +2672,13 @@
       <c r="G9" s="4"/>
       <c r="H9" s="6"/>
       <c r="I9" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N9" s="5"/>
       <c r="O9" s="5" t="s">
@@ -2686,7 +2690,7 @@
     <row r="10" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="4"/>
@@ -2704,13 +2708,13 @@
       <c r="G11" s="4"/>
       <c r="H11" s="6"/>
       <c r="I11" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="5" t="s">
@@ -2722,7 +2726,7 @@
     <row r="12" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="4"/>
@@ -2740,17 +2744,17 @@
       <c r="G13" s="4"/>
       <c r="H13" s="6"/>
       <c r="I13" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N13" s="5"/>
       <c r="O13" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
@@ -2758,7 +2762,7 @@
     <row r="14" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="4"/>
@@ -2776,17 +2780,17 @@
       <c r="G15" s="4"/>
       <c r="H15" s="6"/>
       <c r="I15" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N15" s="5"/>
       <c r="O15" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
@@ -2810,17 +2814,17 @@
       <c r="G17" s="4"/>
       <c r="H17" s="6"/>
       <c r="I17" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N17" s="5"/>
       <c r="O17" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
@@ -2844,17 +2848,17 @@
       <c r="G19" s="4"/>
       <c r="H19" s="6"/>
       <c r="I19" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N19" s="5"/>
       <c r="O19" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
@@ -2878,17 +2882,17 @@
       <c r="G21" s="4"/>
       <c r="H21" s="6"/>
       <c r="I21" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N21" s="5"/>
       <c r="O21" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
@@ -2912,17 +2916,17 @@
       <c r="G23" s="4"/>
       <c r="H23" s="6"/>
       <c r="I23" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N23" s="5"/>
       <c r="O23" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P23" s="14"/>
       <c r="Q23" s="6"/>
@@ -2946,17 +2950,17 @@
       <c r="G25" s="4"/>
       <c r="H25" s="6"/>
       <c r="I25" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N25" s="5"/>
       <c r="O25" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P25" s="14"/>
       <c r="Q25" s="6"/>
@@ -2980,17 +2984,17 @@
       <c r="G27" s="4"/>
       <c r="H27" s="6"/>
       <c r="I27" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N27" s="5"/>
       <c r="O27" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
@@ -3107,7 +3111,7 @@
   <dimension ref="F4:Q64"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3129,19 +3133,19 @@
     </row>
     <row r="6" spans="6:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="F6" s="4"/>
-      <c r="G6" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="16"/>
+      <c r="G6" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="24"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52"/>
+      <c r="J6" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
       <c r="P6" s="10"/>
       <c r="Q6" s="6"/>
     </row>
@@ -3167,12 +3171,12 @@
       <c r="H8" s="3"/>
       <c r="I8" s="2"/>
       <c r="J8" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="2"/>
       <c r="M8" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N8" s="3"/>
       <c r="O8" s="2"/>
@@ -3191,7 +3195,7 @@
       <c r="N9" s="6"/>
       <c r="O9" s="5"/>
       <c r="P9" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q9" s="6"/>
     </row>
@@ -3357,12 +3361,12 @@
       <c r="H21" s="3"/>
       <c r="I21" s="5"/>
       <c r="J21" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K21" s="3"/>
       <c r="L21" s="5"/>
       <c r="M21" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N21" s="3"/>
       <c r="O21" s="5"/>
@@ -3562,14 +3566,469 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="F4:Q64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="4" spans="6:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="6:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="F5" s="1"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="3"/>
+    </row>
+    <row r="6" spans="6:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="F6" s="4"/>
+      <c r="G6" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="24"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="6"/>
+    </row>
+    <row r="7" spans="6:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="F7" s="4"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="6"/>
+    </row>
+    <row r="8" spans="6:17" x14ac:dyDescent="0.15">
+      <c r="F8" s="4"/>
+      <c r="G8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="6"/>
+    </row>
+    <row r="9" spans="6:17" x14ac:dyDescent="0.15">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+    </row>
+    <row r="10" spans="6:17" x14ac:dyDescent="0.15">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+    </row>
+    <row r="11" spans="6:17" x14ac:dyDescent="0.15">
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+    </row>
+    <row r="12" spans="6:17" x14ac:dyDescent="0.15">
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+    </row>
+    <row r="13" spans="6:17" x14ac:dyDescent="0.15">
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+    </row>
+    <row r="14" spans="6:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+    </row>
+    <row r="15" spans="6:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+    </row>
+    <row r="16" spans="6:17" x14ac:dyDescent="0.15">
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+    </row>
+    <row r="17" spans="6:17" x14ac:dyDescent="0.15">
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+    </row>
+    <row r="18" spans="6:17" x14ac:dyDescent="0.15">
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+    </row>
+    <row r="19" spans="6:17" x14ac:dyDescent="0.15">
+      <c r="F19" s="4"/>
+      <c r="G19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+    </row>
+    <row r="20" spans="6:17" x14ac:dyDescent="0.15">
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+    </row>
+    <row r="21" spans="6:17" x14ac:dyDescent="0.15">
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+    </row>
+    <row r="22" spans="6:17" x14ac:dyDescent="0.15">
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+    </row>
+    <row r="23" spans="6:17" x14ac:dyDescent="0.15">
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="I23" s="5"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="6"/>
+    </row>
+    <row r="24" spans="6:17" x14ac:dyDescent="0.15">
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+    </row>
+    <row r="25" spans="6:17" x14ac:dyDescent="0.15">
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="6"/>
+    </row>
+    <row r="26" spans="6:17" x14ac:dyDescent="0.15">
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+    </row>
+    <row r="27" spans="6:17" x14ac:dyDescent="0.15">
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+    </row>
+    <row r="28" spans="6:17" x14ac:dyDescent="0.15">
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+    </row>
+    <row r="29" spans="6:17" x14ac:dyDescent="0.15">
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+    </row>
+    <row r="30" spans="6:17" x14ac:dyDescent="0.15">
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+    </row>
+    <row r="31" spans="6:17" x14ac:dyDescent="0.15">
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+    </row>
+    <row r="32" spans="6:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="F32" s="4"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="6"/>
+    </row>
+    <row r="33" spans="6:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="F33" s="7"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="9"/>
+    </row>
+    <row r="64" spans="6:17" x14ac:dyDescent="0.15">
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="5"/>
+      <c r="O64" s="5"/>
+      <c r="P64" s="5"/>
+      <c r="Q64" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G6:H6"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
